--- a/TechList.xlsx
+++ b/TechList.xlsx
@@ -426,8 +426,8 @@
   </sheetPr>
   <dimension ref="B2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -529,17 +529,27 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>lightning 2</t>
+          <t>cyclone</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>luminaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>luminaire</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -560,6 +570,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>wind slash</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>lightning</t>
@@ -567,6 +582,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lightning 2</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>cleave</t>

--- a/TechList.xlsx
+++ b/TechList.xlsx
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
